--- a/com.Equarz.Ecommerce/src/main/java/com/testdata/Login creadentials.xlsx
+++ b/com.Equarz.Ecommerce/src/main/java/com/testdata/Login creadentials.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Adress" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>password</t>
   </si>
@@ -32,6 +33,30 @@
   </si>
   <si>
     <t>mharihara333@gmail.com</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>M.A Hari Hara Kumar</t>
+  </si>
+  <si>
+    <t>Eluru</t>
+  </si>
+  <si>
+    <t>kalaparru(v),Pedepadu (m)</t>
   </si>
 </sst>
 </file>
@@ -437,4 +462,60 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>9705530333</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>534007</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>